--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>401734.5492009248</v>
+        <v>421703.3784581544</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484467</v>
+        <v>492028.9342484457</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8035331.340345589</v>
+        <v>8079523.26272482</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>325.5800738246913</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>339.4108976757223</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.355512532834</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>39.67766237668115</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.67859516108212</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>378.8930818762257</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.6943663644388</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>116.0434079398612</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1069,10 +1069,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>23.05870378648879</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>318.0582422849117</v>
       </c>
     </row>
     <row r="9">
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>145.3286161890213</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1373,7 +1373,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>163.5395542426756</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>18.22772027659126</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1537,16 +1537,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170492</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>169.7914649777119</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1619,13 +1619,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>129.7853418074757</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>90.97964783088969</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>86.2022861485586</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>148.8597651553</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1859,10 +1859,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>18.22772027659355</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -1904,7 +1904,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>351.074943643277</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2002,7 +2002,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>10.04027365719971</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>245.6558377980609</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790326</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>18.22772027659352</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>33.08339867819967</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2257,7 +2257,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>245.6558377980604</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>131.5141848153398</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2485,16 +2485,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>116.3527098704442</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.0567773522574</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2713,7 +2713,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>222.6988144892041</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>168.6160409848432</v>
       </c>
     </row>
     <row r="29">
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225757</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3007,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>5.990622819019197</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>201.495171407522</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3253,7 +3253,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3439,10 +3439,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3487,7 +3487,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>45.76594660771082</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3566,7 +3566,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864815</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.0567773522574</v>
+        <v>39.88277234054648</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3721,7 +3721,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3791,7 +3791,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.866554855692</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225773</v>
+        <v>152.5168019860609</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791304972</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225774</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436918</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1654.761434047123</v>
+        <v>1670.308256514056</v>
       </c>
       <c r="C2" t="n">
-        <v>1620.659365270951</v>
+        <v>1232.165783697479</v>
       </c>
       <c r="D2" t="n">
-        <v>1291.790603831868</v>
+        <v>796.2559988719238</v>
       </c>
       <c r="E2" t="n">
-        <v>863.2089295691367</v>
+        <v>766.5216580706231</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>338.6542284798307</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.6542284798307</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304698</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018699</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031049</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>484.3619720031049</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>484.3619720031049</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>484.3619720031049</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>524.3060841805699</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489134</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797698</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756292</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509349</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509349</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509349</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509349</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509349</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2454.549176960787</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>2439.447117580502</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>2096.607826998964</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1298.296211021833</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>1191.839749858476</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1096.749461005029</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>1002.629046331983</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>919.2452079481443</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>833.8601182143282</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>792.1244660305406</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>818.1881391909982</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1142.746464157211</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1142.746464157211</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1142.746464157211</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1142.746464157211</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1142.746464157211</v>
       </c>
       <c r="O3" t="n">
-        <v>857.0776321906106</v>
+        <v>1189.74986447437</v>
       </c>
       <c r="P3" t="n">
-        <v>1277.130531135514</v>
+        <v>1797.452510782934</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>2338.19144941501</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509349</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2391.908789957733</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2261.730146288334</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2085.393599288303</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1886.276081350302</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1700.953327083496</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1546.085891322376</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1419.600112101597</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>645.9435555864051</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>645.9435555864051</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>480.0655627879278</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>480.0655627879278</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>303.358508749684</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755117</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755117</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018699</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>135.6869697148768</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>410.4454242860124</v>
       </c>
       <c r="L4" t="n">
-        <v>120.5233537662982</v>
+        <v>828.6553060539735</v>
       </c>
       <c r="M4" t="n">
-        <v>540.5762527112014</v>
+        <v>1288.139173234887</v>
       </c>
       <c r="N4" t="n">
-        <v>960.6291516561047</v>
+        <v>1519.995309448894</v>
       </c>
       <c r="O4" t="n">
-        <v>1380.298400881886</v>
+        <v>1939.664558674675</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2287.171452645017</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509349</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214721</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2393.867959369589</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2147.988512948044</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1869.555512201149</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1582.60000407158</v>
       </c>
       <c r="W4" t="n">
-        <v>433.2298803720686</v>
+        <v>1310.573599657871</v>
       </c>
       <c r="X4" t="n">
-        <v>187.8381257054811</v>
+        <v>1065.181844991284</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.8381257054811</v>
+        <v>837.7621743053921</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>927.8253404203546</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>489.6828676037779</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V5" t="n">
-        <v>1437.961127397434</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W5" t="n">
-        <v>1033.105672808467</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X5" t="n">
-        <v>613.9632093877782</v>
+        <v>1762.411034605609</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.6770856874316</v>
+        <v>1354.124910905262</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>884.4397056785397</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C7" t="n">
-        <v>711.8779941617646</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="D7" t="n">
-        <v>546.0000013632873</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="E7" t="n">
-        <v>376.2419976140245</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>992.2117929153466</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>992.2117929153466</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>992.2117929153466</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>992.2117929153466</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>560.7619447847901</v>
+        <v>576.9744364820456</v>
       </c>
       <c r="C8" t="n">
-        <v>122.6194719682134</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>90.75009118306194</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>61.01575038176117</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>37.18872483137297</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>37.18872483137297</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>37.18872483137297</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851297</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851297</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>491.824636757611</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>491.824636757611</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>491.824636757611</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>491.824636757611</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743958</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873494</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172592</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925649</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1815.305152939296</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1815.305152939296</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1815.305152939296</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1815.305152939296</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1814.490102390734</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1395.347638970044</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>987.0615152696979</v>
+        <v>599.2336029265493</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498058</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864481</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330013</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.276515759955</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761166</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230051</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851297</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897057</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851829</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842809</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543884</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543884</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543884</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543884</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543884</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716307</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114682</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503482</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295689</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1027.17014684507</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>854.6084353282946</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>688.7304425298173</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>518.9724387805546</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>342.2653847423108</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>176.6741097681385</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851297</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851297</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851297</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851297</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>454.981817226474</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>910.034518525572</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1352.293321683217</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1771.962570908998</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925649</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925649</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925649</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925649</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925649</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1838.596772925649</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1838.596772925649</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1691.800190916536</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1446.408436249949</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1218.988765564057</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5021,16 @@
         <v>1814.514395351988</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526432</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847273</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>516.9624360939351</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>115.5646047171986</v>
       </c>
       <c r="H11" t="n">
         <v>97.15276605397511</v>
@@ -5039,19 +5039,19 @@
         <v>96.73597668111512</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111512</v>
+        <v>531.990664134033</v>
       </c>
       <c r="K11" t="n">
-        <v>931.0862686392931</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2006.146234892152</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="M11" t="n">
-        <v>2006.146234892152</v>
+        <v>2523.388791302762</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940402</v>
+        <v>3292.836108510708</v>
       </c>
       <c r="O11" t="n">
         <v>3292.836108510708</v>
@@ -5118,25 +5118,25 @@
         <v>122.7996498415727</v>
       </c>
       <c r="J12" t="n">
-        <v>122.7996498415727</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>803.5331699119502</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L12" t="n">
-        <v>803.5331699119502</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M12" t="n">
-        <v>803.5331699119502</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>803.5331699119502</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>803.5331699119502</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
-        <v>1623.256336391148</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q12" t="n">
         <v>1642.802960065584</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.2298140987273</v>
+        <v>859.1849089451274</v>
       </c>
       <c r="C13" t="n">
-        <v>633.6681025819522</v>
+        <v>686.6231974283523</v>
       </c>
       <c r="D13" t="n">
-        <v>467.7901097834749</v>
+        <v>520.7452046298752</v>
       </c>
       <c r="E13" t="n">
-        <v>298.0321060342122</v>
+        <v>350.9872008806124</v>
       </c>
       <c r="F13" t="n">
-        <v>121.3250519959684</v>
+        <v>350.9872008806124</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111512</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111512</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I13" t="n">
         <v>96.73597668111512</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460367</v>
+        <v>2361.229866306767</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713472</v>
+        <v>2082.796865559872</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.886262583902</v>
+        <v>1795.841357430302</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170194</v>
+        <v>1523.814953016594</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.468103503606</v>
+        <v>1278.423198350006</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.0484328177145</v>
+        <v>1051.003527664114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168564</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.514395351988</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526432</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E14" t="n">
-        <v>944.8298656847273</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>516.9624360939351</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111512</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111512</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J14" t="n">
-        <v>531.990664134033</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>531.990664134033</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>1607.050630386892</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940402</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940402</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510708</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344104</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302699</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055756</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239593</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112631</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429648</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363474</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774508</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353819</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653472</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D15" t="n">
         <v>401.3609716556035</v>
@@ -5346,31 +5346,31 @@
         <v>223.8567185987188</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649026</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111512</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415727</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5397,10 +5397,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.134188067672</v>
+        <v>784.8119928040993</v>
       </c>
       <c r="C16" t="n">
-        <v>914.5724765508968</v>
+        <v>697.7389764924237</v>
       </c>
       <c r="D16" t="n">
-        <v>748.6944837524195</v>
+        <v>531.8609836939463</v>
       </c>
       <c r="E16" t="n">
-        <v>578.9364800031567</v>
+        <v>362.1029799446836</v>
       </c>
       <c r="F16" t="n">
-        <v>402.2294259649129</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907406</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111512</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111512</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J16" t="n">
         <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169405</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
         <v>876.2839981849016</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S16" t="n">
-        <v>2563.032187437148</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2317.152741015603</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U16" t="n">
-        <v>2038.719740268708</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V16" t="n">
-        <v>1751.764232139138</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W16" t="n">
-        <v>1751.764232139138</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X16" t="n">
-        <v>1506.372477472551</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.952806786659</v>
+        <v>976.6306115230864</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.958394689264</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047132</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205427</v>
+        <v>944.8298656847294</v>
       </c>
       <c r="F17" t="n">
-        <v>787.263962614635</v>
+        <v>516.9624360939371</v>
       </c>
       <c r="G17" t="n">
-        <v>385.8661312378989</v>
+        <v>115.564604717201</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111513</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J17" t="n">
-        <v>96.73597668111513</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>931.0862686392931</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2006.146234892152</v>
+        <v>2135.788273300159</v>
       </c>
       <c r="M17" t="n">
-        <v>2006.146234892152</v>
+        <v>3292.83610851071</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940403</v>
+        <v>3292.83610851071</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510709</v>
+        <v>3292.83610851071</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344105</v>
+        <v>4121.145983344106</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.6447693027</v>
+        <v>4667.644769302701</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055757</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S17" t="n">
         <v>4753.146960239595</v>
       </c>
       <c r="T17" t="n">
-        <v>4753.146960239595</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U17" t="n">
-        <v>4493.924657556611</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V17" t="n">
-        <v>4131.307707490438</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W17" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.544088874519</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.257965174172</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C18" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D18" t="n">
         <v>401.3609716556035</v>
@@ -5586,10 +5586,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I18" t="n">
-        <v>122.7996498415727</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
         <v>447.3579748077851</v>
@@ -5634,10 +5634,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X18" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y18" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1087.134188067672</v>
+        <v>784.8119928040993</v>
       </c>
       <c r="C19" t="n">
-        <v>914.5724765508969</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D19" t="n">
-        <v>748.6944837524196</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E19" t="n">
-        <v>578.9364800031568</v>
+        <v>439.0343056935314</v>
       </c>
       <c r="F19" t="n">
-        <v>402.2294259649129</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>236.6381509907406</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J19" t="n">
         <v>183.315661845805</v>
@@ -5695,7 +5695,7 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.977765289287</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S19" t="n">
         <v>2532.736396587283</v>
@@ -5704,19 +5704,19 @@
         <v>2286.856950165738</v>
       </c>
       <c r="U19" t="n">
-        <v>2286.856950165738</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V19" t="n">
-        <v>1999.901442036169</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W19" t="n">
-        <v>1751.764232139138</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X19" t="n">
-        <v>1506.372477472551</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y19" t="n">
-        <v>1278.952806786659</v>
+        <v>976.6306115230864</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.958394689265</v>
+        <v>2252.656868168566</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.906137047133</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.131392205427</v>
+        <v>944.8298656847292</v>
       </c>
       <c r="F20" t="n">
-        <v>787.2639626146349</v>
+        <v>516.962436093937</v>
       </c>
       <c r="G20" t="n">
-        <v>385.8661312378989</v>
+        <v>115.5646047172009</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111512</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111512</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J20" t="n">
-        <v>531.990664134033</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K20" t="n">
         <v>1366.340956092211</v>
@@ -5759,43 +5759,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2441.40092234507</v>
+        <v>3292.83610851071</v>
       </c>
       <c r="N20" t="n">
-        <v>2441.40092234507</v>
+        <v>3292.83610851071</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510708</v>
+        <v>3292.83610851071</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344104</v>
+        <v>4121.145983344106</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302699</v>
+        <v>4667.644769302701</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055756</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S20" t="n">
-        <v>4803.381259633332</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T20" t="n">
-        <v>4803.381259633332</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U20" t="n">
-        <v>4544.158956950349</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.542006884175</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.544088874519</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.257965174173</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C21" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D21" t="n">
         <v>401.3609716556035</v>
@@ -5820,19 +5820,19 @@
         <v>223.8567185987188</v>
       </c>
       <c r="G21" t="n">
-        <v>138.4716288649026</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111512</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I21" t="n">
-        <v>122.7996498415727</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3579748077851</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="K21" t="n">
-        <v>1102.064021433509</v>
+        <v>777.4694967514926</v>
       </c>
       <c r="L21" t="n">
         <v>1102.064021433509</v>
@@ -5871,10 +5871,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X21" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y21" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1087.134188067672</v>
+        <v>1175.794137292996</v>
       </c>
       <c r="C22" t="n">
-        <v>914.5724765508968</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D22" t="n">
-        <v>748.6944837524195</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E22" t="n">
-        <v>578.9364800031567</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F22" t="n">
-        <v>402.2294259649129</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G22" t="n">
-        <v>236.6381509907406</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111512</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111512</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J22" t="n">
         <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
-        <v>458.0741164169405</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
         <v>876.2839981849016</v>
@@ -5938,22 +5938,22 @@
         <v>2532.736396587283</v>
       </c>
       <c r="T22" t="n">
-        <v>2286.856950165738</v>
+        <v>2286.856950165739</v>
       </c>
       <c r="U22" t="n">
-        <v>2286.856950165738</v>
+        <v>2286.856950165739</v>
       </c>
       <c r="V22" t="n">
         <v>1999.901442036169</v>
       </c>
       <c r="W22" t="n">
-        <v>1751.764232139138</v>
+        <v>1727.875037622461</v>
       </c>
       <c r="X22" t="n">
-        <v>1506.372477472551</v>
+        <v>1595.032426697875</v>
       </c>
       <c r="Y22" t="n">
-        <v>1278.952806786659</v>
+        <v>1367.612756011983</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5999,16 +5999,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>949.5782250957677</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>949.5782250957677</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324585</v>
+        <v>783.7002322972903</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>613.9422285480276</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6151,46 +6151,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745657</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814755</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6230,19 +6230,19 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M26" t="n">
-        <v>3603.973621145286</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4584.153287715592</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4584.153287715592</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6385,7 +6385,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
         <v>881.8088617745661</v>
@@ -6415,19 +6415,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2088.851337586188</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1801.895829456619</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1529.869425042911</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1284.477670376323</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.477670376323</v>
+        <v>1060.673733775247</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6467,10 +6467,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6537,31 +6537,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928211</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
         <v>881.8088617745661</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,19 +6707,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6835,10 +6835,10 @@
         <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>920.0973401405614</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420841</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
         <v>584.4613435928212</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T34" t="n">
-        <v>2594.704009018976</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2316.271008272081</v>
+        <v>2088.851337586189</v>
       </c>
       <c r="V34" t="n">
-        <v>2029.315500142512</v>
+        <v>1801.89582945662</v>
       </c>
       <c r="W34" t="n">
-        <v>1757.289095728803</v>
+        <v>1529.869425042911</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.897341062215</v>
+        <v>1284.477670376323</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.477670376324</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,19 +6944,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.756877347711</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309359</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324586</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181458</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.414238779902</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1408.738671568552</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004234</v>
@@ -7181,7 +7181,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423627</v>
@@ -7205,10 +7205,10 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257732</v>
@@ -7248,31 +7248,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2970399865835</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>426.8553649527958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2657.217000252136</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2411.337553830592</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2132.904553083697</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
         <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7409,28 +7409,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>475.2748675296854</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1632.322702740236</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
         <v>5113.04201353898</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7594,25 +7594,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2564.863074430083</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2318.983628008538</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2040.550627261644</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1753.595119132074</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1481.568714718366</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1236.176960051778</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1008.757289365886</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771586</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004225</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436387</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7655,16 +7655,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934734</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="Q44" t="n">
         <v>4943.887948785924</v>
@@ -7685,13 +7685,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J45" t="n">
-        <v>426.8553649527958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q45" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R45" t="n">
         <v>1765.500601749588</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477109</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309358</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324585</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>40.34758805804546</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773373</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773375</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,7 +8058,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>52.98895607821112</v>
+        <v>47.47818213854498</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773375</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,22 +8137,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>234.1981173878862</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314121</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>270.2148169866514</v>
+        <v>640.5448952297622</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314121</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.649193231412</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314121</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662657</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314123</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314121</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476429365</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>309.6062697457066</v>
+        <v>777.219512331259</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8766,10 +8766,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.74406431761236</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8927,16 +8927,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>712.733142983343</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>777.2195123312608</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>309.6062697457076</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9407,13 +9407,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>860.0355415814543</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>860.0355415814524</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9474,16 +9474,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>327.873257254562</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9659,7 +9659,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,22 +9878,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>363.3683445154866</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9954,10 +9954,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10115,13 +10115,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10185,19 +10185,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10370,7 +10370,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,16 +10422,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>687.6096162327044</v>
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>376.7818457160665</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,19 +11303,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11370,10 +11370,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>301.5463146682411</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>687.6096162327044</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>268.0111327346243</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>268.0111327346247</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>73.62918697961737</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>267.598511255493</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>268.011132734622</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>84.63380825304871</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>8.789189859683308</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>268.0111327346223</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>49.73195639979997</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>23.65030257151051</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23984,10 +23984,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>268.0111327346224</v>
       </c>
       <c r="I20" t="n">
-        <v>0.412621479131395</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>49.73195639980169</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>23.65030257151094</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>111.4236523045819</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>58.58727362741709</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627259</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>52.94985625022159</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>56.52943299418965</v>
       </c>
     </row>
     <row r="29">
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.0953302292546</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>74.15349933190373</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>197.1718905122108</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627259</v>
+        <v>117.7661826744368</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627256</v>
+        <v>5.132153028922403</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>102.9863699957339</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>672898.1270386882</v>
+        <v>686505.0982510506</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>672898.1270386882</v>
+        <v>690358.2299194224</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>675436.0537333026</v>
+        <v>690358.2299194224</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>684253.4942530764</v>
+        <v>684253.4942530767</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>684253.4942530764</v>
+        <v>684253.4942530766</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>684253.4942530764</v>
+        <v>684253.4942530767</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>713129.7736193592</v>
+        <v>713129.7736193594</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>713129.7736193591</v>
+        <v>713129.7736193592</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>713129.7736193592</v>
+        <v>713129.7736193594</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>713129.7736193592</v>
+        <v>713129.7736193594</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>713129.7736193592</v>
+        <v>713129.7736193591</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308284.7089369848</v>
+        <v>308284.7089369849</v>
       </c>
       <c r="C2" t="n">
         <v>308284.7089369848</v>
       </c>
       <c r="D2" t="n">
-        <v>308284.7089369848</v>
+        <v>308284.7089369849</v>
       </c>
       <c r="E2" t="n">
-        <v>290676.2413337138</v>
+        <v>290676.2413337137</v>
       </c>
       <c r="F2" t="n">
-        <v>290676.2413337138</v>
+        <v>290676.2413337139</v>
       </c>
       <c r="G2" t="n">
-        <v>290676.2413337138</v>
+        <v>290676.2413337139</v>
       </c>
       <c r="H2" t="n">
         <v>290676.2413337138</v>
@@ -26350,7 +26350,7 @@
         <v>302943.1108789775</v>
       </c>
       <c r="O2" t="n">
-        <v>302943.1108789775</v>
+        <v>302943.1108789776</v>
       </c>
       <c r="P2" t="n">
         <v>302943.1108789775</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039039</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390569</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200354</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520263</v>
+        <v>161735.0752101142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.7156328397</v>
+        <v>18364.71563283958</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856141</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784437</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510663</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104668</v>
+        <v>134989.9446130033</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212093.1194372179</v>
+        <v>182320.3813513278</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.535266443</v>
       </c>
       <c r="D4" t="n">
-        <v>206540.0080518351</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>91036.59625752563</v>
+        <v>91036.59625752561</v>
       </c>
       <c r="F4" t="n">
-        <v>91036.59625752563</v>
+        <v>91036.59625752567</v>
       </c>
       <c r="G4" t="n">
         <v>91036.59625752564</v>
       </c>
       <c r="H4" t="n">
-        <v>91036.59625752563</v>
+        <v>91036.59625752564</v>
       </c>
       <c r="I4" t="n">
+        <v>94878.44464875288</v>
+      </c>
+      <c r="J4" t="n">
         <v>94878.44464875289</v>
-      </c>
-      <c r="J4" t="n">
-        <v>94878.44464875288</v>
       </c>
       <c r="K4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="M4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="N4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875292</v>
       </c>
       <c r="O4" t="n">
+        <v>94878.44464875289</v>
+      </c>
+      <c r="P4" t="n">
         <v>94878.44464875288</v>
-      </c>
-      <c r="P4" t="n">
-        <v>94878.44464875289</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.1362581421</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846986</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764749</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764749</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764751</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764749</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26494,7 +26494,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26503,7 +26503,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
         <v>77718.2386057925</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-105424.4992971654</v>
+        <v>-150697.0651763889</v>
       </c>
       <c r="C6" t="n">
-        <v>36766.80136254448</v>
+        <v>42842.10473487839</v>
       </c>
       <c r="D6" t="n">
-        <v>29188.62326467637</v>
+        <v>60182.64910878408</v>
       </c>
       <c r="E6" t="n">
-        <v>-97678.99095348567</v>
+        <v>-35691.33096637042</v>
       </c>
       <c r="F6" t="n">
-        <v>126120.3027985407</v>
+        <v>126043.7442437439</v>
       </c>
       <c r="G6" t="n">
-        <v>126120.3027985407</v>
+        <v>126043.7442437439</v>
       </c>
       <c r="H6" t="n">
-        <v>126120.3027985407</v>
+        <v>126043.7442437438</v>
       </c>
       <c r="I6" t="n">
-        <v>111981.7119915923</v>
+        <v>111958.4876522099</v>
       </c>
       <c r="J6" t="n">
-        <v>19331.96227944188</v>
+        <v>-30284.62620056459</v>
       </c>
       <c r="K6" t="n">
-        <v>130346.4276244321</v>
+        <v>116509.1947172051</v>
       </c>
       <c r="L6" t="n">
-        <v>121398.8165359214</v>
+        <v>130323.2032850495</v>
       </c>
       <c r="M6" t="n">
-        <v>-56444.55898603477</v>
+        <v>-4666.741327953791</v>
       </c>
       <c r="N6" t="n">
-        <v>130346.427624432</v>
+        <v>130323.2032850495</v>
       </c>
       <c r="O6" t="n">
-        <v>130346.4276244322</v>
+        <v>130323.2032850495</v>
       </c>
       <c r="P6" t="n">
-        <v>130346.4276244321</v>
+        <v>130323.2032850495</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773373</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314121</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.199708513939</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973051962</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130781</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825268</v>
+        <v>541.684501906082</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080638</v>
+        <v>69.06079487080592</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773373</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973051962</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130803</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825268</v>
+        <v>541.684501906082</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773373</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973051962</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130781</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825268</v>
+        <v>541.684501906082</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>105.9706131526086</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.14113987318342</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>64.79236478762084</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.54491999896322</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>117.9712926383021</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>370.3579796189766</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>52.65760510107418</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83.20606616735841</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>52.01701577190894</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>59.75665129151257</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>86.14502017843142</v>
       </c>
     </row>
     <row r="9">
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>123.9775241805501</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>40.34758805804546</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773373</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773375</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,13 +34772,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,16 +34790,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>52.98895607821112</v>
+        <v>47.47818213854498</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773375</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>234.1981173878862</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314121</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>270.2148169866514</v>
+        <v>640.5448952297622</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314121</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.649193231412</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314121</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662657</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314123</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314121</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476429365</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>309.6062697457066</v>
+        <v>777.219512331259</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35486,10 +35486,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638365</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.74406431761236</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35647,16 +35647,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>712.733142983343</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>777.2195123312608</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>309.6062697457076</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697549</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36121,19 +36121,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>860.0355415814543</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>860.0355415814524</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697549</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>327.873257254562</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36379,7 +36379,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.434224008041</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36528,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,22 +36598,22 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>363.3683445154866</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36674,10 +36674,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36756,7 +36756,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36835,13 +36835,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37090,7 +37090,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>687.6096162327044</v>
@@ -37631,7 +37631,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>376.7818457160665</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38023,19 +38023,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="R44" t="n">
         <v>170.862691669754</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>301.5463146682411</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>687.6096162327044</v>
@@ -38102,7 +38102,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
